--- a/src/predicciones/xgboost/producto_278.xlsx
+++ b/src/predicciones/xgboost/producto_278.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,1217 +386,1670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44932</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1.405181765556335</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44939</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1.448091387748718</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44940</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>1.725466012954712</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44945</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>1.291342973709106</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44946</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1.04583215713501</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44953</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>1.463358163833618</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44954</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.9921960234642029</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44960</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1.561774730682373</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44967</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.247343897819519</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44972</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.392632365226746</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44974</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.481375813484192</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44975</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>1.389368891716003</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44976</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.890946269035339</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44979</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1.546872019767761</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44980</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>1.404174566268921</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44981</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>1.608954191207886</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44985</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>1.663885474205017</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44986</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.515376448631287</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>2</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44989</v>
       </c>
       <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>1.570267558097839</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44990</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1.517006993293762</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44991</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1.52119767665863</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44992</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1.611122488975525</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44995</v>
       </c>
       <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>1.149329900741577</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44997</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1.048071503639221</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44998</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1.129369378089905</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44999</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1.13480007648468</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45001</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>1.033379316329956</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45006</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1.052238702774048</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45009</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>1.527833700180054</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45011</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1.110836505889893</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>2</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45015</v>
       </c>
       <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>1.38526976108551</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45018</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>1.757787466049194</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45019</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.186107277870178</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45022</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>1.119009733200073</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45025</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>1.60144054889679</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45027</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.387648582458496</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45029</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1.077134490013123</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>2</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45031</v>
       </c>
       <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>0.9908157587051392</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>2</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45038</v>
       </c>
       <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>1.537329435348511</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45041</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.181222558021545</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45044</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>1.548614144325256</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45045</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>1.468966007232666</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45046</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.072905659675598</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45049</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>1.199524641036987</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>2</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45050</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>0.9954451322555542</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45059</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>0.9221019744873047</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45060</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1.522734403610229</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45064</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>0.9989571571350098</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45071</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.010721802711487</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45073</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1.124624848365784</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45074</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>1.340672492980957</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45075</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>0.9351503849029541</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>2</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45076</v>
       </c>
       <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
         <v>1.118457555770874</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45082</v>
       </c>
       <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>1.163239598274231</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45093</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>1.233206868171692</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45096</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>1.534720420837402</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45102</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>1.436176896095276</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45105</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>1.133970975875854</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45110</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>0.9966847896575928</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45112</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>1.086166739463806</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45113</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.057577610015869</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45114</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>0.9564374089241028</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45117</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>1.258001923561096</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>2</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45119</v>
       </c>
       <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
         <v>1.113752007484436</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>2</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45120</v>
       </c>
       <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
         <v>1.147807478904724</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45121</v>
       </c>
       <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>2.003108263015747</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>2</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45122</v>
       </c>
       <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
         <v>1.765032887458801</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>2</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45124</v>
       </c>
       <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
         <v>1.534090518951416</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45128</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>1.081848621368408</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45131</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>1.294922113418579</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>2</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45132</v>
       </c>
       <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
         <v>1.299878597259521</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45136</v>
       </c>
       <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>1.0157710313797</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45138</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>1.032967925071716</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45139</v>
       </c>
       <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>1.012426376342773</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45142</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>1.036733150482178</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45143</v>
       </c>
       <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>0.9380369186401367</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45145</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>1.054536461830139</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45146</v>
       </c>
       <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>0.9267633557319641</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45148</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.292256951332092</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45150</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>1.317306995391846</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>1</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45154</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>1.248334288597107</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45155</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.713640689849854</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45156</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.374220371246338</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>1</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45159</v>
       </c>
       <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>1.366252303123474</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>2</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45160</v>
       </c>
       <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
         <v>1.112426280975342</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45164</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.117056488990784</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45166</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>0.9085478186607361</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>1</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45168</v>
       </c>
       <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>0.9756219983100891</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45169</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>1.298463106155396</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45170</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>1.006883502006531</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>1</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45173</v>
       </c>
       <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>1.222234725952148</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>2</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45176</v>
       </c>
       <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
         <v>1.153761029243469</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>2</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45179</v>
       </c>
       <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
         <v>1.252002358436584</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45183</v>
       </c>
       <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>1.002840757369995</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45184</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>1.066303372383118</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45192</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>1.510003805160522</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45194</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>1.289039492607117</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>2</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45198</v>
       </c>
       <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
         <v>1.246149182319641</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45202</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>1.191567540168762</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45206</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>0.9428651928901672</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>2</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45207</v>
       </c>
       <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
         <v>1.410280823707581</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45210</v>
       </c>
       <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>1.194652438163757</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45211</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>1.357961654663086</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45213</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>1.05055034160614</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45214</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>1.371195554733276</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>2</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45218</v>
       </c>
       <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
         <v>1.484306573867798</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45219</v>
       </c>
       <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>1.131378650665283</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>2</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45224</v>
       </c>
       <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
         <v>1.201584577560425</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>1</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45230</v>
       </c>
       <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
         <v>1.451537370681763</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>1</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45234</v>
       </c>
       <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
         <v>1.429787635803223</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>2</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45241</v>
       </c>
       <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
         <v>1.434390544891357</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45246</v>
       </c>
       <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>0.9905549883842468</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45251</v>
       </c>
       <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>1.841625332832336</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>1</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45253</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>1.129788398742676</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45254</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>1.166010856628418</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>2</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45255</v>
       </c>
       <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
         <v>1.702693581581116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45258</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>1.427930235862732</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>2</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45260</v>
       </c>
       <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>1.370599150657654</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>2</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45261</v>
       </c>
       <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
         <v>1.516250371932983</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45263</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>1.014953255653381</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>2</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45265</v>
       </c>
       <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
         <v>1.86045253276825</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>1</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45269</v>
       </c>
       <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
         <v>1.101463079452515</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>1</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45272</v>
       </c>
       <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>1.417908549308777</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>2</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45273</v>
       </c>
       <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
         <v>1.078776717185974</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>1</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45275</v>
       </c>
       <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
         <v>1.228429555892944</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>2</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45276</v>
       </c>
       <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
         <v>1.569654226303101</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>2</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45277</v>
       </c>
       <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
         <v>1.524356842041016</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>2</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45278</v>
       </c>
       <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
         <v>1.227619767189026</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45281</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>1.065174579620361</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>1</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45282</v>
       </c>
       <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
         <v>1.3501216173172</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45284</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>1.155120611190796</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>1</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45286</v>
       </c>
       <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
         <v>1.682516813278198</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>2</v>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45288</v>
       </c>
       <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
         <v>1.947908282279968</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>1</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45295</v>
       </c>
       <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
         <v>1.429044127464294</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>2</v>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45296</v>
       </c>
       <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>1.504437804222107</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>2</v>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45298</v>
       </c>
       <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
         <v>1.415846347808838</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>1</v>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45302</v>
       </c>
       <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
         <v>1.407577395439148</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>1</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45307</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>1.381777405738831</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>2</v>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45312</v>
       </c>
       <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
         <v>1.370959162712097</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>2</v>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45316</v>
       </c>
       <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
         <v>1.123993515968323</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>1</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45320</v>
       </c>
       <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
         <v>1.517982244491577</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>2</v>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45321</v>
       </c>
       <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
         <v>0.9441508650779724</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>1</v>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45324</v>
       </c>
       <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
         <v>1.089304208755493</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>1</v>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45325</v>
       </c>
       <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
         <v>1.662050724029541</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>2</v>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45326</v>
       </c>
       <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
         <v>1.349874258041382</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>1</v>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45333</v>
       </c>
       <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>1.339491486549377</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>2</v>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45334</v>
       </c>
       <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
         <v>1.460219979286194</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>2</v>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45343</v>
       </c>
       <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
         <v>1.372454881668091</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
-        <v>2</v>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45348</v>
       </c>
       <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
         <v>1.334308385848999</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>1</v>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45350</v>
       </c>
       <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
         <v>1.490821838378906</v>
       </c>
     </row>
